--- a/day08/data/2_danawa_data_final.xlsx
+++ b/day08/data/2_danawa_data_final.xlsx
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1043690</v>
+        <v>1043700</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>778960</v>
+        <v>778970</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>495910</v>
+        <v>495920</v>
       </c>
       <c r="E33" t="n">
         <v>40</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>297990</v>
+        <v>298000</v>
       </c>
       <c r="E39" t="n">
         <v>50</v>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>40560</v>
+        <v>40550</v>
       </c>
       <c r="E44" t="n">
         <v>18</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>335510</v>
+        <v>335500</v>
       </c>
       <c r="E57" t="n">
         <v>60</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>765160</v>
+        <v>765170</v>
       </c>
       <c r="E63" t="n">
         <v>60</v>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>449340</v>
+        <v>449330</v>
       </c>
       <c r="E73" t="n">
         <v>40</v>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>482620</v>
+        <v>482630</v>
       </c>
       <c r="E75" t="n">
         <v>20</v>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>638990</v>
+        <v>638980</v>
       </c>
       <c r="E89" t="n">
         <v>60</v>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>99800</v>
+        <v>99790</v>
       </c>
       <c r="E98" t="n">
         <v>45</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>538020</v>
+        <v>538990</v>
       </c>
       <c r="E104" t="n">
         <v>43</v>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>52510</v>
+        <v>51920</v>
       </c>
       <c r="E111" t="n">
         <v>20</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>199870</v>
+        <v>199880</v>
       </c>
       <c r="E149" t="n">
         <v>40</v>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1635000</v>
+        <v>1634990</v>
       </c>
       <c r="E167" t="n">
         <v>80</v>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>64880</v>
+        <v>64870</v>
       </c>
       <c r="E178" t="n">
         <v>40</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>446000</v>
+        <v>632580</v>
       </c>
       <c r="E244" t="n">
         <v>33</v>
@@ -7734,7 +7734,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>172920</v>
+        <v>172910</v>
       </c>
       <c r="E281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>600070</v>
+        <v>600080</v>
       </c>
       <c r="E282" t="n">
         <v>40</v>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>848070</v>
+        <v>848080</v>
       </c>
       <c r="E291" t="n">
         <v>40</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>460090</v>
+        <v>460100</v>
       </c>
       <c r="E308" t="n">
         <v>30</v>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>39010</v>
+        <v>39000</v>
       </c>
       <c r="E343" t="n">
         <v>180</v>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>77353</v>
+        <v>77675</v>
       </c>
       <c r="E390" t="n">
         <v>22</v>
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>367630</v>
+        <v>367640</v>
       </c>
       <c r="E674" t="n">
         <v>25</v>
@@ -22804,7 +22804,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>118137</v>
+        <v>118629</v>
       </c>
       <c r="E861" t="n">
         <v>25</v>
@@ -23090,7 +23090,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>2037831</v>
+        <v>2046315</v>
       </c>
       <c r="E872" t="n">
         <v>60</v>
@@ -23142,7 +23142,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>184207</v>
+        <v>184974</v>
       </c>
       <c r="E874" t="n">
         <v>75</v>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>56060</v>
+        <v>56050</v>
       </c>
       <c r="E876" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>692060</v>
+        <v>692066</v>
       </c>
       <c r="E981" t="n">
         <v>60</v>
@@ -26808,7 +26808,7 @@
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>1644100</v>
+        <v>1644110</v>
       </c>
       <c r="E1015" t="n">
         <v>60</v>
@@ -30186,7 +30186,7 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>193130</v>
+        <v>193140</v>
       </c>
       <c r="E1145" t="n">
         <v>40</v>
